--- a/config_2.2/rank_server.xlsx
+++ b/config_2.2/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="268">
   <si>
     <t>id|</t>
   </si>
@@ -1221,6 +1221,14 @@
   </si>
   <si>
     <t>灵珠收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>drswn_002_ygbd_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1759,11 +1767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2751,39 +2759,74 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>1610409600</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>1611590399</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>27</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="27">
         <v>27</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="27">
         <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1611590400</v>
+      </c>
+      <c r="F29" s="28">
+        <v>1612195199</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="28">
+        <v>28</v>
+      </c>
+      <c r="K29" s="28">
+        <v>28</v>
+      </c>
+      <c r="L29" s="28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2795,11 +2838,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3521,31 +3564,59 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="5">
         <v>27</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="31">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="5">
         <v>27</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="5">
         <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="31">
+        <v>54</v>
+      </c>
+      <c r="B55" s="31">
+        <v>28</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="31">
+        <v>55</v>
+      </c>
+      <c r="B56" s="31">
+        <v>28</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="31">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3557,10 +3628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4185,36 +4256,70 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="5">
         <v>28</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="5">
         <v>9</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="5">
         <v>28</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31">
+        <v>29</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="31">
+        <v>9</v>
+      </c>
+      <c r="E39" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="31">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31">
+        <v>29</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4324,11 +4429,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4965,25 +5070,48 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
-        <v>1</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>20</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="5">
         <v>100</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="5">
         <v>20</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="5">
         <v>180</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31">
+        <v>1</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20</v>
+      </c>
+      <c r="D29" s="31">
+        <v>100</v>
+      </c>
+      <c r="E29" s="31">
+        <v>20</v>
+      </c>
+      <c r="F29" s="31">
+        <v>180</v>
+      </c>
+      <c r="G29" s="31">
         <v>10</v>
       </c>
     </row>
@@ -4995,11 +5123,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5359,17 +5487,31 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="5">
         <v>29</v>
       </c>
-      <c r="C26" s="31">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>30</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5381,11 +5523,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5742,14 +5884,25 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>1611590399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>
@@ -5760,11 +5913,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9425,156 +9578,310 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="31">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="31">
+      <c r="B165" s="5">
         <v>25</v>
       </c>
-      <c r="C165" s="31">
-        <v>1</v>
-      </c>
-      <c r="D165" s="31">
-        <v>1</v>
-      </c>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="31">
+      <c r="C165" s="5">
+        <v>1</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5">
         <v>149</v>
       </c>
-      <c r="H165" s="32" t="s">
+      <c r="H165" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="31">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="31">
+      <c r="B166" s="5">
         <v>25</v>
       </c>
-      <c r="C166" s="31">
+      <c r="C166" s="5">
         <v>2</v>
       </c>
-      <c r="D166" s="31">
+      <c r="D166" s="5">
         <v>2</v>
       </c>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="31">
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5">
         <v>150</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="31">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="31">
+      <c r="B167" s="5">
         <v>25</v>
       </c>
-      <c r="C167" s="31">
+      <c r="C167" s="5">
         <v>3</v>
       </c>
-      <c r="D167" s="31">
+      <c r="D167" s="5">
         <v>3</v>
       </c>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31">
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5">
         <v>151</v>
       </c>
-      <c r="H167" s="32" t="s">
+      <c r="H167" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="31">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="31">
+      <c r="B168" s="5">
         <v>25</v>
       </c>
-      <c r="C168" s="31">
+      <c r="C168" s="5">
         <v>4</v>
       </c>
-      <c r="D168" s="31">
+      <c r="D168" s="5">
         <v>6</v>
       </c>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31">
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5">
         <v>152</v>
       </c>
-      <c r="H168" s="32" t="s">
+      <c r="H168" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="31">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="31">
+      <c r="B169" s="5">
         <v>25</v>
       </c>
-      <c r="C169" s="31">
+      <c r="C169" s="5">
         <v>7</v>
       </c>
-      <c r="D169" s="31">
+      <c r="D169" s="5">
         <v>10</v>
       </c>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31">
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5">
         <v>153</v>
       </c>
-      <c r="H169" s="32" t="s">
+      <c r="H169" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="31">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="31">
+      <c r="B170" s="5">
         <v>25</v>
       </c>
-      <c r="C170" s="31">
+      <c r="C170" s="5">
         <v>11</v>
       </c>
-      <c r="D170" s="31">
+      <c r="D170" s="5">
         <v>15</v>
       </c>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31">
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5">
         <v>154</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="31">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B171" s="5">
         <v>25</v>
       </c>
-      <c r="C171" s="31">
+      <c r="C171" s="5">
         <v>16</v>
       </c>
-      <c r="D171" s="31">
+      <c r="D171" s="5">
         <v>20</v>
       </c>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31">
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5">
         <v>155</v>
       </c>
-      <c r="H171" s="32" t="s">
+      <c r="H171" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="31">
+        <v>171</v>
+      </c>
+      <c r="B172" s="31">
+        <v>26</v>
+      </c>
+      <c r="C172" s="31">
+        <v>1</v>
+      </c>
+      <c r="D172" s="31">
+        <v>1</v>
+      </c>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31">
+        <v>156</v>
+      </c>
+      <c r="H172" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="31">
+        <v>172</v>
+      </c>
+      <c r="B173" s="31">
+        <v>26</v>
+      </c>
+      <c r="C173" s="31">
+        <v>2</v>
+      </c>
+      <c r="D173" s="31">
+        <v>2</v>
+      </c>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31">
+        <v>157</v>
+      </c>
+      <c r="H173" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="31">
+        <v>173</v>
+      </c>
+      <c r="B174" s="31">
+        <v>26</v>
+      </c>
+      <c r="C174" s="31">
+        <v>3</v>
+      </c>
+      <c r="D174" s="31">
+        <v>3</v>
+      </c>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31">
+        <v>158</v>
+      </c>
+      <c r="H174" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="31">
+        <v>174</v>
+      </c>
+      <c r="B175" s="31">
+        <v>26</v>
+      </c>
+      <c r="C175" s="31">
+        <v>4</v>
+      </c>
+      <c r="D175" s="31">
+        <v>6</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31">
+        <v>159</v>
+      </c>
+      <c r="H175" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="31">
+        <v>175</v>
+      </c>
+      <c r="B176" s="31">
+        <v>26</v>
+      </c>
+      <c r="C176" s="31">
+        <v>7</v>
+      </c>
+      <c r="D176" s="31">
+        <v>10</v>
+      </c>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31">
+        <v>160</v>
+      </c>
+      <c r="H176" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="31">
+        <v>176</v>
+      </c>
+      <c r="B177" s="31">
+        <v>26</v>
+      </c>
+      <c r="C177" s="31">
+        <v>11</v>
+      </c>
+      <c r="D177" s="31">
+        <v>15</v>
+      </c>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31">
+        <v>161</v>
+      </c>
+      <c r="H177" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="31">
+        <v>177</v>
+      </c>
+      <c r="B178" s="31">
+        <v>26</v>
+      </c>
+      <c r="C178" s="31">
+        <v>16</v>
+      </c>
+      <c r="D178" s="31">
+        <v>20</v>
+      </c>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31">
+        <v>162</v>
+      </c>
+      <c r="H178" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9587,11 +9894,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159:C162"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12650,142 +12957,282 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="31">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B154" s="5">
         <v>149</v>
       </c>
-      <c r="C154" s="33" t="s">
+      <c r="C154" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="31">
+      <c r="E154" s="5">
         <v>100000</v>
       </c>
-      <c r="F154" s="31">
+      <c r="F154" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="31">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B155" s="5">
         <v>150</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="C155" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D155" s="33" t="s">
+      <c r="D155" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E155" s="31">
+      <c r="E155" s="5">
         <v>30000</v>
       </c>
-      <c r="F155" s="31">
+      <c r="F155" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="31">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="31">
+      <c r="B156" s="5">
         <v>151</v>
       </c>
-      <c r="C156" s="33" t="s">
+      <c r="C156" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D156" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E156" s="31">
+      <c r="E156" s="5">
         <v>10000</v>
       </c>
-      <c r="F156" s="31">
+      <c r="F156" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="31">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="31">
+      <c r="B157" s="5">
         <v>152</v>
       </c>
-      <c r="C157" s="33" t="s">
+      <c r="C157" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D157" s="33" t="s">
+      <c r="D157" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E157" s="31">
+      <c r="E157" s="5">
         <v>3000</v>
       </c>
-      <c r="F157" s="31">
+      <c r="F157" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="31">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B158" s="5">
         <v>153</v>
       </c>
-      <c r="C158" s="33" t="s">
+      <c r="C158" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E158" s="31">
+      <c r="E158" s="5">
         <v>2000</v>
       </c>
-      <c r="F158" s="31">
+      <c r="F158" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="31">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="5">
         <v>154</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C159" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D159" s="33" t="s">
+      <c r="D159" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E159" s="31">
+      <c r="E159" s="5">
         <v>1000</v>
       </c>
-      <c r="F159" s="31">
+      <c r="F159" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="31">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="31">
+      <c r="B160" s="5">
         <v>155</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E160" s="31">
+      <c r="E160" s="5">
         <v>500</v>
       </c>
-      <c r="F160" s="31">
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="31">
+        <v>160</v>
+      </c>
+      <c r="B161" s="31">
+        <v>156</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E161" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F161" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="31">
+        <v>161</v>
+      </c>
+      <c r="B162" s="31">
+        <v>157</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F162" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="31">
+        <v>162</v>
+      </c>
+      <c r="B163" s="31">
+        <v>158</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F163" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="31">
+        <v>163</v>
+      </c>
+      <c r="B164" s="31">
+        <v>159</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F164" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="31">
+        <v>164</v>
+      </c>
+      <c r="B165" s="31">
+        <v>160</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F165" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="31">
+        <v>165</v>
+      </c>
+      <c r="B166" s="31">
+        <v>161</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F166" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="31">
+        <v>166</v>
+      </c>
+      <c r="B167" s="31">
+        <v>162</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="31">
+        <v>500</v>
+      </c>
+      <c r="F167" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_2.2/rank_server.xlsx
+++ b/config_2.2/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="270">
   <si>
     <t>id|</t>
   </si>
@@ -1229,6 +1229,14 @@
   </si>
   <si>
     <t>drswn_002_ygbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjs_003_bzphb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1767,11 +1775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29:F29"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2764,7 +2772,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>264</v>
@@ -2794,39 +2802,74 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+    <row r="29" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>1611590400</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>1612195199</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <v>28</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="27">
         <v>28</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="27">
         <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1612224000</v>
+      </c>
+      <c r="F30" s="28">
+        <v>1612799999</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="28">
+        <v>29</v>
+      </c>
+      <c r="K30" s="28">
+        <v>29</v>
+      </c>
+      <c r="L30" s="28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2838,11 +2881,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3550,7 +3593,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="5">
@@ -3578,7 +3621,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="5">
@@ -3592,31 +3635,59 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="31">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="5">
         <v>28</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="31">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="5">
         <v>28</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="5">
         <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="31">
+        <v>29</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="31">
+        <v>29</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3628,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4239,7 +4310,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="5">
@@ -4273,7 +4344,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="5">
@@ -4290,36 +4361,70 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="5">
         <v>29</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="5">
         <v>9</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="5">
         <v>29</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31">
+        <v>30</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="31">
+        <v>9</v>
+      </c>
+      <c r="E41" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="31">
+        <v>30</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4429,11 +4534,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5092,26 +5197,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
-        <v>1</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
         <v>20</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="5">
         <v>100</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="5">
         <v>20</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="5">
         <v>180</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31">
+        <v>20</v>
+      </c>
+      <c r="D30" s="31">
+        <v>100</v>
+      </c>
+      <c r="E30" s="31">
+        <v>20</v>
+      </c>
+      <c r="F30" s="31">
+        <v>180</v>
+      </c>
+      <c r="G30" s="31">
         <v>10</v>
       </c>
     </row>
@@ -5123,11 +5251,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5500,18 +5628,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="5">
         <v>30</v>
       </c>
-      <c r="C27" s="31">
-        <v>1</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31">
+        <v>31</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5665,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5894,15 +6036,26 @@
         <v>1611590399</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>1612195199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
@@ -5913,11 +6066,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9732,156 +9885,310 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="31">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="31">
+      <c r="B172" s="5">
         <v>26</v>
       </c>
-      <c r="C172" s="31">
-        <v>1</v>
-      </c>
-      <c r="D172" s="31">
-        <v>1</v>
-      </c>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="31">
+      <c r="C172" s="5">
+        <v>1</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5">
         <v>156</v>
       </c>
-      <c r="H172" s="32" t="s">
+      <c r="H172" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="31">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="31">
+      <c r="B173" s="5">
         <v>26</v>
       </c>
-      <c r="C173" s="31">
+      <c r="C173" s="5">
         <v>2</v>
       </c>
-      <c r="D173" s="31">
+      <c r="D173" s="5">
         <v>2</v>
       </c>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="31">
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5">
         <v>157</v>
       </c>
-      <c r="H173" s="32" t="s">
+      <c r="H173" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="31">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="31">
+      <c r="B174" s="5">
         <v>26</v>
       </c>
-      <c r="C174" s="31">
+      <c r="C174" s="5">
         <v>3</v>
       </c>
-      <c r="D174" s="31">
+      <c r="D174" s="5">
         <v>3</v>
       </c>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31">
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5">
         <v>158</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H174" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="31">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="31">
+      <c r="B175" s="5">
         <v>26</v>
       </c>
-      <c r="C175" s="31">
+      <c r="C175" s="5">
         <v>4</v>
       </c>
-      <c r="D175" s="31">
+      <c r="D175" s="5">
         <v>6</v>
       </c>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="31">
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5">
         <v>159</v>
       </c>
-      <c r="H175" s="32" t="s">
+      <c r="H175" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="31">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="31">
+      <c r="B176" s="5">
         <v>26</v>
       </c>
-      <c r="C176" s="31">
+      <c r="C176" s="5">
         <v>7</v>
       </c>
-      <c r="D176" s="31">
+      <c r="D176" s="5">
         <v>10</v>
       </c>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31"/>
-      <c r="G176" s="31">
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5">
         <v>160</v>
       </c>
-      <c r="H176" s="32" t="s">
+      <c r="H176" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="31">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="31">
+      <c r="B177" s="5">
         <v>26</v>
       </c>
-      <c r="C177" s="31">
+      <c r="C177" s="5">
         <v>11</v>
       </c>
-      <c r="D177" s="31">
+      <c r="D177" s="5">
         <v>15</v>
       </c>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31">
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5">
         <v>161</v>
       </c>
-      <c r="H177" s="32" t="s">
+      <c r="H177" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="31">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="31">
+      <c r="B178" s="5">
         <v>26</v>
       </c>
-      <c r="C178" s="31">
+      <c r="C178" s="5">
         <v>16</v>
       </c>
-      <c r="D178" s="31">
+      <c r="D178" s="5">
         <v>20</v>
       </c>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="31">
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5">
         <v>162</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>178</v>
+      </c>
+      <c r="B179" s="31">
+        <v>27</v>
+      </c>
+      <c r="C179" s="31">
+        <v>1</v>
+      </c>
+      <c r="D179" s="31">
+        <v>1</v>
+      </c>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31">
+        <v>163</v>
+      </c>
+      <c r="H179" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>179</v>
+      </c>
+      <c r="B180" s="31">
+        <v>27</v>
+      </c>
+      <c r="C180" s="31">
+        <v>2</v>
+      </c>
+      <c r="D180" s="31">
+        <v>2</v>
+      </c>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31">
+        <v>164</v>
+      </c>
+      <c r="H180" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>180</v>
+      </c>
+      <c r="B181" s="31">
+        <v>27</v>
+      </c>
+      <c r="C181" s="31">
+        <v>3</v>
+      </c>
+      <c r="D181" s="31">
+        <v>3</v>
+      </c>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31">
+        <v>165</v>
+      </c>
+      <c r="H181" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+      <c r="B182" s="31">
+        <v>27</v>
+      </c>
+      <c r="C182" s="31">
+        <v>4</v>
+      </c>
+      <c r="D182" s="31">
+        <v>6</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31">
+        <v>166</v>
+      </c>
+      <c r="H182" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+      <c r="B183" s="31">
+        <v>27</v>
+      </c>
+      <c r="C183" s="31">
+        <v>7</v>
+      </c>
+      <c r="D183" s="31">
+        <v>10</v>
+      </c>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31">
+        <v>167</v>
+      </c>
+      <c r="H183" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+      <c r="B184" s="31">
+        <v>27</v>
+      </c>
+      <c r="C184" s="31">
+        <v>11</v>
+      </c>
+      <c r="D184" s="31">
+        <v>15</v>
+      </c>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31">
+        <v>168</v>
+      </c>
+      <c r="H184" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+      <c r="B185" s="31">
+        <v>27</v>
+      </c>
+      <c r="C185" s="31">
+        <v>16</v>
+      </c>
+      <c r="D185" s="31">
+        <v>20</v>
+      </c>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31">
+        <v>169</v>
+      </c>
+      <c r="H185" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9894,11 +10201,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13097,142 +13404,282 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="5">
         <v>156</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="D161" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E161" s="31">
+      <c r="E161" s="5">
         <v>100000</v>
       </c>
-      <c r="F161" s="31">
+      <c r="F161" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="31">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="5">
         <v>157</v>
       </c>
-      <c r="C162" s="33" t="s">
+      <c r="C162" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E162" s="31">
+      <c r="E162" s="5">
         <v>30000</v>
       </c>
-      <c r="F162" s="31">
+      <c r="F162" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="31">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="31">
+      <c r="B163" s="5">
         <v>158</v>
       </c>
-      <c r="C163" s="33" t="s">
+      <c r="C163" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E163" s="31">
+      <c r="E163" s="5">
         <v>10000</v>
       </c>
-      <c r="F163" s="31">
+      <c r="F163" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="31">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="31">
+      <c r="B164" s="5">
         <v>159</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E164" s="31">
+      <c r="E164" s="5">
         <v>3000</v>
       </c>
-      <c r="F164" s="31">
+      <c r="F164" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="31">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="31">
+      <c r="B165" s="5">
         <v>160</v>
       </c>
-      <c r="C165" s="33" t="s">
+      <c r="C165" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E165" s="31">
+      <c r="E165" s="5">
         <v>2000</v>
       </c>
-      <c r="F165" s="31">
+      <c r="F165" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="31">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="31">
+      <c r="B166" s="5">
         <v>161</v>
       </c>
-      <c r="C166" s="33" t="s">
+      <c r="C166" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E166" s="31">
+      <c r="E166" s="5">
         <v>1000</v>
       </c>
-      <c r="F166" s="31">
+      <c r="F166" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="31">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="31">
+      <c r="B167" s="5">
         <v>162</v>
       </c>
-      <c r="C167" s="33" t="s">
+      <c r="C167" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E167" s="31">
+      <c r="E167" s="5">
         <v>500</v>
       </c>
-      <c r="F167" s="31">
+      <c r="F167" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="31">
+        <v>167</v>
+      </c>
+      <c r="B168" s="31">
+        <v>163</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F168" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="31">
+        <v>168</v>
+      </c>
+      <c r="B169" s="31">
+        <v>164</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F169" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="31">
+        <v>169</v>
+      </c>
+      <c r="B170" s="31">
+        <v>165</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E170" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F170" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="31">
+        <v>170</v>
+      </c>
+      <c r="B171" s="31">
+        <v>166</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F171" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="31">
+        <v>171</v>
+      </c>
+      <c r="B172" s="31">
+        <v>167</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E172" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F172" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="31">
+        <v>172</v>
+      </c>
+      <c r="B173" s="31">
+        <v>168</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E173" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F173" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="31">
+        <v>173</v>
+      </c>
+      <c r="B174" s="31">
+        <v>169</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E174" s="31">
+        <v>500</v>
+      </c>
+      <c r="F174" s="31">
         <v>1</v>
       </c>
     </row>
